--- a/Week6-psychopy_tutorial/cue_stims.xlsx
+++ b/Week6-psychopy_tutorial/cue_stims.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3877f2b160796369/Drive_F/00_Nueron_maze/BCI_neuro_media_SS2/psychopy_tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BCI-Class-Material\Week6-psychopy_tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC104858F95C657E5ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5E962A-5C7D-4745-A2C7-7DFEEBD3FF25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D675AF3-A82D-46E8-B8AC-E78B9C8407D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="3375" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,18 +377,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -410,7 +408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -421,7 +419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -432,7 +430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
